--- a/Estimation.WebApi/Forms/DescriptionOfEstimation_SubmitForm.xlsx
+++ b/Estimation.WebApi/Forms/DescriptionOfEstimation_SubmitForm.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattanapol.K\source\repos\EstimationServer\Estimation.WebApi\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattanapol.K\Source\Repos\EstimationServer\Estimation.WebApi\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F6524DBA-D46C-4720-AD23-AEAC870E85B1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Description" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Summary!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Description!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -140,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,88 +475,88 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -871,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
@@ -889,15 +890,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -922,25 +923,25 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="32" t="s">
         <v>4</v>
       </c>
     </row>
@@ -956,192 +957,192 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15">
         <v>1</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15">
         <v>1</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15">
         <v>1</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15">
         <v>1</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15">
         <v>1</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="23"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="32"/>
+      <c r="G17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
